--- a/data/trans_dic/P14B_x_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P14B_x_R-Estudios-trans_dic.xlsx
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,84</t>
+          <t>2,37; 5,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 10,34</t>
+          <t>6,02; 10,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,0; 15,31</t>
+          <t>11,07; 15,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,7; 15,32</t>
+          <t>11,65; 15,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,57; 10,33</t>
+          <t>7,53; 10,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,85; 12,76</t>
+          <t>9,92; 12,65</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,46</t>
+          <t>1,28; 2,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,26</t>
+          <t>2,44; 4,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 6,09</t>
+          <t>4,09; 6,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,06</t>
+          <t>5,65; 8,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,07</t>
+          <t>2,83; 3,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 5,79</t>
+          <t>4,41; 5,84</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,46</t>
+          <t>0,16; 1,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,91</t>
+          <t>1,81; 4,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,93</t>
+          <t>0,72; 3,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,66</t>
+          <t>3,01; 5,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,88</t>
+          <t>0,56; 1,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,62</t>
+          <t>2,7; 4,68</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 4,68</t>
+          <t>3,25; 4,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 7,66</t>
+          <t>5,88; 7,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 8,68</t>
+          <t>6,82; 8,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 4,97</t>
+          <t>3,92; 4,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 6,53</t>
+          <t>5,43; 6,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P14B_x_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P14B_x_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,12</t>
+          <t>2,25; 4,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,07; 15,61</t>
+          <t>11,07; 15,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 10,45</t>
+          <t>7,5; 10,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,52</t>
+          <t>1,33; 2,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 6,07</t>
+          <t>4,0; 6,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 3,99</t>
+          <t>2,88; 4,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,41</t>
+          <t>0,16; 1,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,07</t>
+          <t>0,71; 3,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,9</t>
+          <t>0,54; 1,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,49</t>
+          <t>1,55; 2,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 7,68</t>
+          <t>5,87; 7,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,95</t>
+          <t>3,96; 4,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P14B_x_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P14B_x_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,66</t>
+          <t>2,34; 4,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,62</t>
+          <t>6,03; 10,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,07; 15,67</t>
+          <t>11,0; 15,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,65; 15,43</t>
+          <t>11,7; 15,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 10,41</t>
+          <t>7,57; 10,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,92; 12,65</t>
+          <t>9,85; 12,76</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,52</t>
+          <t>1,32; 2,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,11</t>
+          <t>2,47; 4,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 6,06</t>
+          <t>4,04; 6,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,0</t>
+          <t>5,67; 8,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,0</t>
+          <t>2,86; 4,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 5,84</t>
+          <t>4,46; 5,79</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,52</t>
+          <t>0,16; 1,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,86</t>
+          <t>1,85; 4,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,2</t>
+          <t>0,71; 2,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,8</t>
+          <t>2,9; 5,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,89</t>
+          <t>0,56; 1,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 4,68</t>
+          <t>2,65; 4,62</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,5</t>
+          <t>1,54; 2,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 4,73</t>
+          <t>3,25; 4,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,66</t>
+          <t>5,88; 7,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,82; 8,54</t>
+          <t>6,87; 8,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 4,97</t>
+          <t>3,97; 4,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 6,55</t>
+          <t>5,4; 6,53</t>
         </is>
       </c>
     </row>
